--- a/data/trans_orig/P23_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P23_R2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>237307</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>214832</v>
+        <v>214380</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>261162</v>
+        <v>261648</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.40625014865198</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3677735199680323</v>
+        <v>0.3670003362070903</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4470879900209457</v>
+        <v>0.4479186022934473</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>203</v>
@@ -765,19 +765,19 @@
         <v>210896</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>186482</v>
+        <v>185573</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>236835</v>
+        <v>237279</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2286544301364025</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.202185239455938</v>
+        <v>0.2011996769629326</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.256777890739575</v>
+        <v>0.2572595665309235</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>436</v>
@@ -786,19 +786,19 @@
         <v>448203</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>411092</v>
+        <v>414368</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>482400</v>
+        <v>483849</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2975178660146716</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2728832898117556</v>
+        <v>0.2750578902847819</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3202181051033779</v>
+        <v>0.3211798698642048</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>346834</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>322979</v>
+        <v>322493</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>369309</v>
+        <v>369761</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5937498513480201</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5529120099790543</v>
+        <v>0.5520813977065526</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6322264800319678</v>
+        <v>0.6329996637929097</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>682</v>
@@ -836,19 +836,19 @@
         <v>711437</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>685498</v>
+        <v>685054</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>735851</v>
+        <v>736760</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7713455698635976</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7432221092604249</v>
+        <v>0.7427404334690764</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.797814760544062</v>
+        <v>0.7988003230370674</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1023</v>
@@ -857,19 +857,19 @@
         <v>1058271</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1024074</v>
+        <v>1022625</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1095382</v>
+        <v>1092106</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7024821339853284</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6797818948966216</v>
+        <v>0.6788201301357951</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7271167101882442</v>
+        <v>0.724942109715218</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>469290</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>435116</v>
+        <v>434330</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>499956</v>
+        <v>501640</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4353771436500003</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.403671945938873</v>
+        <v>0.4029432822550522</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4638269196130653</v>
+        <v>0.4653893979264275</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>261</v>
@@ -982,19 +982,19 @@
         <v>269049</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>240992</v>
+        <v>240649</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>299239</v>
+        <v>297435</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2544106853339551</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2278801153959134</v>
+        <v>0.2275560111300352</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2829583342440287</v>
+        <v>0.2812526786902415</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>718</v>
@@ -1003,19 +1003,19 @@
         <v>738339</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>696736</v>
+        <v>693835</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>783690</v>
+        <v>785012</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.345756446871698</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3262741799501109</v>
+        <v>0.3249157071991062</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3669937318140413</v>
+        <v>0.3676127336803323</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>608604</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>577938</v>
+        <v>576254</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>642778</v>
+        <v>643564</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5646228563499996</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5361730803869347</v>
+        <v>0.5346106020735724</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.596328054061127</v>
+        <v>0.5970567177449478</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>767</v>
@@ -1053,19 +1053,19 @@
         <v>788489</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>758299</v>
+        <v>760103</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>816546</v>
+        <v>816889</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7455893146660448</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7170416657559714</v>
+        <v>0.7187473213097587</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7721198846040868</v>
+        <v>0.7724439888699651</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1365</v>
@@ -1074,19 +1074,19 @@
         <v>1397093</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1351742</v>
+        <v>1350420</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1438696</v>
+        <v>1441597</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.654243553128302</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6330062681859582</v>
+        <v>0.6323872663196675</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6737258200498889</v>
+        <v>0.6750842928008934</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>430022</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>400841</v>
+        <v>399468</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>461721</v>
+        <v>462261</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3834028460393905</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.35738487361148</v>
+        <v>0.3561611753028621</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4116652424125585</v>
+        <v>0.4121460949633525</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>238</v>
@@ -1199,19 +1199,19 @@
         <v>238478</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>213965</v>
+        <v>211734</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>266755</v>
+        <v>265037</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2399315499031674</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2152699961348938</v>
+        <v>0.2130250762738354</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2683817147294235</v>
+        <v>0.266653054784574</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>660</v>
@@ -1220,19 +1220,19 @@
         <v>668500</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>626948</v>
+        <v>627866</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>714269</v>
+        <v>708604</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3159958407945382</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2963543051939821</v>
+        <v>0.2967882780000429</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.337630669111802</v>
+        <v>0.3349527593176204</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>691572</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>659873</v>
+        <v>659333</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>720753</v>
+        <v>722126</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6165971539606095</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5883347575874415</v>
+        <v>0.5878539050366475</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.64261512638852</v>
+        <v>0.6438388246971378</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>744</v>
@@ -1270,19 +1270,19 @@
         <v>755462</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>727185</v>
+        <v>728903</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>779975</v>
+        <v>782206</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7600684500968325</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7316182852705764</v>
+        <v>0.7333469452154255</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7847300038651063</v>
+        <v>0.7869749237261644</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1425</v>
@@ -1291,19 +1291,19 @@
         <v>1447034</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1401265</v>
+        <v>1406930</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1488586</v>
+        <v>1487668</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6840041592054618</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.662369330888198</v>
+        <v>0.6650472406823795</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7036456948060179</v>
+        <v>0.7032117219999572</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>155387</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>135502</v>
+        <v>135683</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>177077</v>
+        <v>176044</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3474673638614465</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3030010662252549</v>
+        <v>0.3034049116076659</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.395968561611879</v>
+        <v>0.3936587195987548</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -1416,19 +1416,19 @@
         <v>96671</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79803</v>
+        <v>81125</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>114071</v>
+        <v>115653</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2833619201195882</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2339184232831147</v>
+        <v>0.2377925409739163</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3343630916630982</v>
+        <v>0.3390018324650458</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>243</v>
@@ -1437,19 +1437,19 @@
         <v>252059</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>226774</v>
+        <v>227499</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>278231</v>
+        <v>279931</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3197260330094296</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2876532709440097</v>
+        <v>0.2885731084806694</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3529243830149693</v>
+        <v>0.355081119929169</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>291813</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>270123</v>
+        <v>271156</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>311698</v>
+        <v>311517</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6525326361385535</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.604031438388121</v>
+        <v>0.6063412804012454</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6969989337747452</v>
+        <v>0.6965950883923341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>242</v>
@@ -1487,19 +1487,19 @@
         <v>244487</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>227087</v>
+        <v>225505</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>261355</v>
+        <v>260033</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7166380798804118</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6656369083369017</v>
+        <v>0.6609981675349544</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7660815767168853</v>
+        <v>0.7622074590260837</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>532</v>
@@ -1508,19 +1508,19 @@
         <v>536299</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>510127</v>
+        <v>508427</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>561584</v>
+        <v>560859</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6802739669905704</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6470756169850306</v>
+        <v>0.6449188800708309</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7123467290559902</v>
+        <v>0.7114268915193303</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1292008</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1236374</v>
+        <v>1239541</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1349069</v>
+        <v>1348650</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3998996940606516</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3826800682753814</v>
+        <v>0.3836602476791769</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4175613550979681</v>
+        <v>0.417431682268326</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>799</v>
@@ -1633,19 +1633,19 @@
         <v>815093</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>768340</v>
+        <v>768409</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>865119</v>
+        <v>865364</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.245882615001169</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2317788510294019</v>
+        <v>0.2317997983168506</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2609735622176268</v>
+        <v>0.2610474962260422</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2057</v>
@@ -1654,19 +1654,19 @@
         <v>2107101</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2031811</v>
+        <v>2029756</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2185892</v>
+        <v>2183912</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3219012886877149</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.310399224835131</v>
+        <v>0.310085307107643</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3339381697276176</v>
+        <v>0.3336357483760278</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1938821</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1881760</v>
+        <v>1882179</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1994455</v>
+        <v>1991288</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6001003059393484</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.582438644902032</v>
+        <v>0.5825683177316745</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6173199317246186</v>
+        <v>0.6163397523208233</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2435</v>
@@ -1704,19 +1704,19 @@
         <v>2499876</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2449850</v>
+        <v>2449605</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2546629</v>
+        <v>2546560</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.754117384998831</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7390264377823734</v>
+        <v>0.7389525037739579</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7682211489705981</v>
+        <v>0.7682002016831495</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4345</v>
@@ -1725,19 +1725,19 @@
         <v>4438697</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4359906</v>
+        <v>4361886</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4513987</v>
+        <v>4516042</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6780987113122852</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6660618302723823</v>
+        <v>0.6663642516239722</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6896007751648691</v>
+        <v>0.689914692892357</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>462710</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>430295</v>
+        <v>430119</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>497689</v>
+        <v>493582</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4436737675901533</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4125922812483261</v>
+        <v>0.4124234743091967</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4772146060716897</v>
+        <v>0.4732763690173773</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>317</v>
@@ -2090,19 +2090,19 @@
         <v>349634</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>317293</v>
+        <v>318840</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>380588</v>
+        <v>379767</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3121928642770229</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2833151344538926</v>
+        <v>0.2846970635859755</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3398322112304376</v>
+        <v>0.3390998567317186</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>750</v>
@@ -2111,19 +2111,19 @@
         <v>812343</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>762089</v>
+        <v>761790</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>855223</v>
+        <v>859537</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.375592157958924</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3523567400737023</v>
+        <v>0.3522184290529337</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3954178094289924</v>
+        <v>0.3974123560246106</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>580195</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>545216</v>
+        <v>549323</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>612610</v>
+        <v>612786</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5563262324098468</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5227853939283102</v>
+        <v>0.5267236309826228</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5874077187516739</v>
+        <v>0.5875765256908032</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>714</v>
@@ -2161,19 +2161,19 @@
         <v>770294</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>739340</v>
+        <v>740161</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>802635</v>
+        <v>801088</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.687807135722977</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6601677887695621</v>
+        <v>0.6609001432682814</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7166848655461073</v>
+        <v>0.7153029364140245</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1258</v>
@@ -2182,19 +2182,19 @@
         <v>1350490</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1307610</v>
+        <v>1303296</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1400744</v>
+        <v>1401043</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6244078420410759</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6045821905710076</v>
+        <v>0.6025876439753894</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6476432599262977</v>
+        <v>0.6477815709470663</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>375920</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>345966</v>
+        <v>343075</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>409152</v>
+        <v>407313</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3847413443284132</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3540843712829021</v>
+        <v>0.3511248721313458</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4187527786568682</v>
+        <v>0.4168710834194917</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>263</v>
@@ -2307,19 +2307,19 @@
         <v>288895</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>260603</v>
+        <v>259296</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>323689</v>
+        <v>317266</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2640091187502691</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2381543545583711</v>
+        <v>0.2369592987809476</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2958059657845325</v>
+        <v>0.2899356837993767</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>622</v>
@@ -2328,19 +2328,19 @@
         <v>664816</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>624131</v>
+        <v>618730</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>710309</v>
+        <v>704044</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3209599138717733</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3013180601527154</v>
+        <v>0.2987109662822146</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.342923416995675</v>
+        <v>0.3398985159639155</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>601153</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>567921</v>
+        <v>569760</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>631107</v>
+        <v>633998</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6152586556715868</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5812472213431319</v>
+        <v>0.5831289165805084</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6459156287170981</v>
+        <v>0.6488751278686543</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>757</v>
@@ -2378,19 +2378,19 @@
         <v>805367</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>770573</v>
+        <v>776996</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>833659</v>
+        <v>834966</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.735990881249731</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7041940342154676</v>
+        <v>0.7100643162006233</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7618456454416291</v>
+        <v>0.7630407012190524</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1322</v>
@@ -2399,19 +2399,19 @@
         <v>1406519</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1361026</v>
+        <v>1367291</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1447204</v>
+        <v>1452605</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6790400861282267</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6570765830043251</v>
+        <v>0.6601014840360845</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6986819398472847</v>
+        <v>0.7012890337177854</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>272338</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>245827</v>
+        <v>243576</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>302508</v>
+        <v>302903</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.307686591868655</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.277734290291498</v>
+        <v>0.2751915318597116</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3417724287700335</v>
+        <v>0.3422183882218175</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>203</v>
@@ -2524,19 +2524,19 @@
         <v>214724</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>189957</v>
+        <v>187221</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>242713</v>
+        <v>241243</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2457313644592525</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2173885382386384</v>
+        <v>0.2142569114311008</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2777630657042253</v>
+        <v>0.2760801649062811</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>455</v>
@@ -2545,19 +2545,19 @@
         <v>487062</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>449230</v>
+        <v>447463</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>531195</v>
+        <v>529752</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2769080127190769</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2554000159659113</v>
+        <v>0.2543950918970339</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3019992238485574</v>
+        <v>0.3011789116204736</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>612777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>582607</v>
+        <v>582212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>639288</v>
+        <v>641539</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.692313408131345</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6582275712299664</v>
+        <v>0.6577816117781825</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7222657097085019</v>
+        <v>0.7248084681402888</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>616</v>
@@ -2595,19 +2595,19 @@
         <v>659090</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>631101</v>
+        <v>632571</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>683857</v>
+        <v>686593</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7542686355407475</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7222369342957745</v>
+        <v>0.7239198350937192</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7826114617613615</v>
+        <v>0.7857430885688994</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1194</v>
@@ -2616,19 +2616,19 @@
         <v>1271867</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1227734</v>
+        <v>1229177</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1309699</v>
+        <v>1311466</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7230919872809231</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6980007761514424</v>
+        <v>0.6988210883795264</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7445999840340886</v>
+        <v>0.7456049081029661</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>145129</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>122059</v>
+        <v>125927</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>166360</v>
+        <v>168504</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2885144952458901</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2426516850074866</v>
+        <v>0.2503395882705026</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3307201863524208</v>
+        <v>0.3349827079128208</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>96</v>
@@ -2741,19 +2741,19 @@
         <v>103400</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>86530</v>
+        <v>86989</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124590</v>
+        <v>123449</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2283883534724555</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.19112643499659</v>
+        <v>0.1921412938318731</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2751941968662394</v>
+        <v>0.2726742332710871</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>231</v>
@@ -2762,19 +2762,19 @@
         <v>248529</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>219127</v>
+        <v>221165</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>276284</v>
+        <v>277687</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2600331883629972</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2292699424841342</v>
+        <v>0.2314023822710468</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2890732374909191</v>
+        <v>0.29054059973636</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>357894</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>336663</v>
+        <v>334519</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>380964</v>
+        <v>377096</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7114855047541099</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6692798136475792</v>
+        <v>0.6650172920871791</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7573483149925135</v>
+        <v>0.7496604117294974</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>316</v>
@@ -2812,19 +2812,19 @@
         <v>349336</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>328146</v>
+        <v>329287</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>366206</v>
+        <v>365747</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7716116465275445</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7248058031337606</v>
+        <v>0.7273257667289139</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.80887356500341</v>
+        <v>0.8078587061681269</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>642</v>
@@ -2833,19 +2833,19 @@
         <v>707229</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>679474</v>
+        <v>678071</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>736631</v>
+        <v>734593</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7399668116370028</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7109267625090809</v>
+        <v>0.70945940026364</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7707300575158659</v>
+        <v>0.7685976177289533</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1256097</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1195193</v>
+        <v>1191583</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1313322</v>
+        <v>1310122</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3685606510943483</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3506902415368237</v>
+        <v>0.3496309133437707</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3853512408000699</v>
+        <v>0.3844124134998196</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>879</v>
@@ -2958,19 +2958,19 @@
         <v>956652</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>901085</v>
+        <v>901631</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1011351</v>
+        <v>1016442</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2701841556965578</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2544904744281433</v>
+        <v>0.2546448231370066</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.285632784780425</v>
+        <v>0.2870705038454004</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2058</v>
@@ -2979,19 +2979,19 @@
         <v>2212749</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2133231</v>
+        <v>2132022</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2295475</v>
+        <v>2292493</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3184336087539184</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3069902664596366</v>
+        <v>0.3068162412544616</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3303385801574498</v>
+        <v>0.3299094000765236</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2152019</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2094794</v>
+        <v>2097994</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2212923</v>
+        <v>2216533</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6314393489056517</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6146487591999301</v>
+        <v>0.6155875865001803</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6493097584631763</v>
+        <v>0.6503690866562281</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2403</v>
@@ -3029,19 +3029,19 @@
         <v>2584088</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2529389</v>
+        <v>2524298</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2639655</v>
+        <v>2639109</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7298158443034423</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.714367215219575</v>
+        <v>0.7129294961545997</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7455095255718567</v>
+        <v>0.7453551768629935</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4416</v>
@@ -3050,19 +3050,19 @@
         <v>4736107</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4653381</v>
+        <v>4656363</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4815625</v>
+        <v>4816834</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6815663912460816</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6696614198425502</v>
+        <v>0.6700905999234764</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6930097335403635</v>
+        <v>0.6931837587455385</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>491728</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>458387</v>
+        <v>457587</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>524673</v>
+        <v>524546</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4359302593220283</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.406372199816317</v>
+        <v>0.4056636403610246</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4651368960459632</v>
+        <v>0.4650240750346946</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>385</v>
@@ -3415,19 +3415,19 @@
         <v>398385</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>364115</v>
+        <v>364897</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>433656</v>
+        <v>428696</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.316567434440286</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2893356774491858</v>
+        <v>0.2899570417711723</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3445951772571324</v>
+        <v>0.3406537455966779</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>839</v>
@@ -3436,19 +3436,19 @@
         <v>890113</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>845074</v>
+        <v>843060</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>942917</v>
+        <v>936152</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3729863809838141</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3541136488813804</v>
+        <v>0.3532697797768709</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3951129433754341</v>
+        <v>0.3922780972031483</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>636269</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>603324</v>
+        <v>603451</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>669610</v>
+        <v>670410</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5640697406779717</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5348631039540368</v>
+        <v>0.5349759249653053</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.593627800183683</v>
+        <v>0.5943363596389754</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>802</v>
@@ -3486,19 +3486,19 @@
         <v>860067</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>824796</v>
+        <v>829756</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>894337</v>
+        <v>893555</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6834325655597141</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6554048227428677</v>
+        <v>0.6593462544033221</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7106643225508142</v>
+        <v>0.7100429582288275</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1414</v>
@@ -3507,19 +3507,19 @@
         <v>1496336</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1443532</v>
+        <v>1450297</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1541375</v>
+        <v>1543389</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6270136190161858</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6048870566245659</v>
+        <v>0.6077219027968517</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6458863511186196</v>
+        <v>0.6467302202231291</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>325041</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>298544</v>
+        <v>296260</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>355182</v>
+        <v>353495</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3576498167230042</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3284946716353431</v>
+        <v>0.3259815027053218</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3908149914609225</v>
+        <v>0.3889577955281822</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>255</v>
@@ -3632,19 +3632,19 @@
         <v>261838</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>235767</v>
+        <v>235478</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>290746</v>
+        <v>290685</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2609932976802994</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2350066778356892</v>
+        <v>0.234718284825258</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2898080542537183</v>
+        <v>0.2897475758713009</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>562</v>
@@ -3653,19 +3653,19 @@
         <v>586879</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>545140</v>
+        <v>548490</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>626746</v>
+        <v>627264</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3069352994037804</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2851059165418576</v>
+        <v>0.286857945126154</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3277858657524362</v>
+        <v>0.328056601352314</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>583784</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>553643</v>
+        <v>555330</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>610281</v>
+        <v>612565</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6423501832769958</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6091850085390775</v>
+        <v>0.6110422044718177</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.671505328364657</v>
+        <v>0.6740184972946781</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>693</v>
@@ -3703,19 +3703,19 @@
         <v>741397</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>712489</v>
+        <v>712550</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>767468</v>
+        <v>767757</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7390067023197007</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7101919457462816</v>
+        <v>0.710252424128699</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7649933221643108</v>
+        <v>0.765281715174742</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1267</v>
@@ -3724,19 +3724,19 @@
         <v>1325181</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1285314</v>
+        <v>1284796</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1366920</v>
+        <v>1363570</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6930647005962195</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6722141342475638</v>
+        <v>0.671943398647686</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7148940834581424</v>
+        <v>0.7131420548738461</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>223339</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>200205</v>
+        <v>198487</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>253430</v>
+        <v>252199</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2717599502692072</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2436114252374927</v>
+        <v>0.2415202719129201</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.308375030441744</v>
+        <v>0.3068778583128914</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>160</v>
@@ -3849,19 +3849,19 @@
         <v>164337</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>141521</v>
+        <v>140883</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>186526</v>
+        <v>188316</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.213433611816756</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1838007753723148</v>
+        <v>0.1829718522465923</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.242251537331848</v>
+        <v>0.244576184411453</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>367</v>
@@ -3870,19 +3870,19 @@
         <v>387676</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>352858</v>
+        <v>354526</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>425408</v>
+        <v>426014</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2435467755560954</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2216730064994028</v>
+        <v>0.2227214070281185</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2672509145290448</v>
+        <v>0.2676312608523251</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>598484</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>568393</v>
+        <v>569624</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>621618</v>
+        <v>623336</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7282400497307928</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6916249695582553</v>
+        <v>0.6931221416871083</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7563885747625071</v>
+        <v>0.7584797280870798</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>567</v>
@@ -3920,19 +3920,19 @@
         <v>605633</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>583444</v>
+        <v>581654</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>628449</v>
+        <v>629087</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.786566388183244</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7577484626681521</v>
+        <v>0.755423815588547</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8161992246276852</v>
+        <v>0.8170281477534077</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1145</v>
@@ -3941,19 +3941,19 @@
         <v>1204117</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1166385</v>
+        <v>1165779</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1238935</v>
+        <v>1237267</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7564532244439046</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7327490854709547</v>
+        <v>0.7323687391476748</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7783269935005966</v>
+        <v>0.7772785929718812</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>126976</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>108524</v>
+        <v>108888</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>148752</v>
+        <v>148534</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2505944264700471</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2141781222019306</v>
+        <v>0.2148958072402475</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.293570144884684</v>
+        <v>0.2931385444441461</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -4066,19 +4066,19 @@
         <v>91541</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74675</v>
+        <v>75374</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111062</v>
+        <v>110914</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1869329849540355</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.152491442039641</v>
+        <v>0.1539197231765556</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2267973905559016</v>
+        <v>0.2264952946027251</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>205</v>
@@ -4087,19 +4087,19 @@
         <v>218517</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>194145</v>
+        <v>194147</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>248330</v>
+        <v>244981</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2193068908856419</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1948470044801549</v>
+        <v>0.194848909059489</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2492273434089148</v>
+        <v>0.2458662092624142</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>379725</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>357949</v>
+        <v>358167</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>398177</v>
+        <v>397813</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.749405573529953</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.706429855115316</v>
+        <v>0.7068614555558539</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7858218777980694</v>
+        <v>0.7851041927597525</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>367</v>
@@ -4137,19 +4137,19 @@
         <v>398157</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>378636</v>
+        <v>378784</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>415023</v>
+        <v>414324</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8130670150459645</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7732026094440984</v>
+        <v>0.7735047053972749</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.847508557960359</v>
+        <v>0.8460802768234443</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>721</v>
@@ -4158,19 +4158,19 @@
         <v>777881</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>748068</v>
+        <v>751417</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>802253</v>
+        <v>802251</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7806931091143581</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7507726565910853</v>
+        <v>0.7541337907375858</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8051529955198451</v>
+        <v>0.8051510909405108</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1167084</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1110860</v>
+        <v>1111639</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1225218</v>
+        <v>1224120</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3467947091024365</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.330088042222586</v>
+        <v>0.3303193424909384</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3640690329668763</v>
+        <v>0.3637427981879039</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>888</v>
@@ -4283,19 +4283,19 @@
         <v>916100</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>862721</v>
+        <v>866379</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>967838</v>
+        <v>972982</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2601557468561811</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2449970746807334</v>
+        <v>0.2460357321135959</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2748483405068989</v>
+        <v>0.2763091882495922</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1973</v>
@@ -4304,19 +4304,19 @@
         <v>2083185</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2007942</v>
+        <v>2000555</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2160240</v>
+        <v>2159180</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3024938880457881</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.291568033669645</v>
+        <v>0.2904954449009193</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3136828476348661</v>
+        <v>0.3135289535178177</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2198262</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2140128</v>
+        <v>2141226</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2254486</v>
+        <v>2253707</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6532052908975635</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6359309670331238</v>
+        <v>0.6362572018120961</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6699119577774141</v>
+        <v>0.6696806575090617</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2429</v>
@@ -4354,19 +4354,19 @@
         <v>2605254</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2553516</v>
+        <v>2548372</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2658633</v>
+        <v>2654975</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7398442531438189</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7251516594931011</v>
+        <v>0.7236908117504078</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7550029253192666</v>
+        <v>0.7539642678864041</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4547</v>
@@ -4375,19 +4375,19 @@
         <v>4803515</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4726460</v>
+        <v>4727520</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4878758</v>
+        <v>4886145</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6975061119542119</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6863171523651339</v>
+        <v>0.6864710464821823</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.708431966330355</v>
+        <v>0.7095045550990806</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>188420</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>164525</v>
+        <v>164269</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>212356</v>
+        <v>212964</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3777935671829161</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3298825569731327</v>
+        <v>0.329368875985713</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4257851733808212</v>
+        <v>0.4270040602663285</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>191</v>
@@ -4740,19 +4740,19 @@
         <v>145323</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>129140</v>
+        <v>127020</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>164790</v>
+        <v>164718</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.233046562385654</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2070938897737542</v>
+        <v>0.203694084951034</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2642650977466133</v>
+        <v>0.2641494528059115</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>369</v>
@@ -4761,19 +4761,19 @@
         <v>333744</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>306141</v>
+        <v>303582</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>367239</v>
+        <v>364481</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.297369617129087</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2727754926104542</v>
+        <v>0.2704946320609251</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3272137784224405</v>
+        <v>0.3247567665858586</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>310319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>286383</v>
+        <v>285775</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>334214</v>
+        <v>334470</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.622206432817084</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5742148266191787</v>
+        <v>0.5729959397336715</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6701174430268676</v>
+        <v>0.6706311240142868</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>670</v>
@@ -4811,19 +4811,19 @@
         <v>478257</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>458790</v>
+        <v>458862</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>494440</v>
+        <v>496560</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.766953437614346</v>
+        <v>0.7669534376143459</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7357349022533868</v>
+        <v>0.7358505471940885</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7929061102262458</v>
+        <v>0.7963059150489659</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>947</v>
@@ -4832,19 +4832,19 @@
         <v>788576</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>755081</v>
+        <v>757839</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>816179</v>
+        <v>818738</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7026303828709131</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6727862215775596</v>
+        <v>0.6752432334141413</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7272245073895458</v>
+        <v>0.7295053679390748</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>252199</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>221767</v>
+        <v>220895</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>283353</v>
+        <v>285531</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.26267016499927</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2309747146960367</v>
+        <v>0.2300658340650064</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2951167991181999</v>
+        <v>0.2973852682702848</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>288</v>
@@ -4957,19 +4957,19 @@
         <v>219581</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>197666</v>
+        <v>196943</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>243408</v>
+        <v>246220</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1967840694512195</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1771439663030768</v>
+        <v>0.1764960470033874</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2181374116749341</v>
+        <v>0.2206570003058645</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>506</v>
@@ -4978,19 +4978,19 @@
         <v>471781</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>434836</v>
+        <v>434454</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>511218</v>
+        <v>513279</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2272561714863977</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2094598605811264</v>
+        <v>0.2092761136223507</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2462530584291151</v>
+        <v>0.2472457096534826</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>707938</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>676784</v>
+        <v>674606</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>738370</v>
+        <v>739242</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.73732983500073</v>
+        <v>0.7373298350007301</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7048832008818005</v>
+        <v>0.7026147317297153</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7690252853039639</v>
+        <v>0.7699341659349935</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1319</v>
@@ -5028,19 +5028,19 @@
         <v>896268</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>872441</v>
+        <v>869629</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>918183</v>
+        <v>918906</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8032159305487805</v>
+        <v>0.8032159305487804</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7818625883250659</v>
+        <v>0.7793429996941355</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.822856033696923</v>
+        <v>0.8235039529966125</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2011</v>
@@ -5049,19 +5049,19 @@
         <v>1604205</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1564768</v>
+        <v>1562707</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1641150</v>
+        <v>1641532</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7727438285136023</v>
+        <v>0.7727438285136022</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.753746941570885</v>
+        <v>0.7527542903465174</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7905401394188737</v>
+        <v>0.7907238863776493</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>246371</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>217991</v>
+        <v>214615</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>276565</v>
+        <v>276439</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2354282697294571</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2083085690613595</v>
+        <v>0.2050827305500413</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2642814307002025</v>
+        <v>0.2641613407420326</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>257</v>
@@ -5174,19 +5174,19 @@
         <v>180673</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>159018</v>
+        <v>158708</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>202839</v>
+        <v>202540</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.17245671273545</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1517869597162724</v>
+        <v>0.151490919482648</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1936145191546766</v>
+        <v>0.1933297257261206</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>481</v>
@@ -5195,19 +5195,19 @@
         <v>427044</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>390735</v>
+        <v>392973</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>462898</v>
+        <v>466042</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2039250148186409</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1865865674329229</v>
+        <v>0.1876552827763308</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2210465127849826</v>
+        <v>0.2225477213253867</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>800108</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>769914</v>
+        <v>770040</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>828488</v>
+        <v>831864</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7645717302705429</v>
+        <v>0.7645717302705428</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7357185692997974</v>
+        <v>0.7358386592579672</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7916914309386405</v>
+        <v>0.7949172694499586</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1259</v>
@@ -5245,19 +5245,19 @@
         <v>866969</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>844803</v>
+        <v>845102</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>888624</v>
+        <v>888934</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8275432872645501</v>
+        <v>0.8275432872645502</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8063854808453234</v>
+        <v>0.8066702742738794</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8482130402837278</v>
+        <v>0.848509080517352</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2064</v>
@@ -5266,19 +5266,19 @@
         <v>1667077</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1631223</v>
+        <v>1628079</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1703386</v>
+        <v>1701148</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.796074985181359</v>
+        <v>0.7960749851813592</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7789534872150173</v>
+        <v>0.7774522786746133</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8134134325670771</v>
+        <v>0.8123447172236692</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>203610</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>174051</v>
+        <v>174198</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>234868</v>
+        <v>233998</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2088764723809488</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1785532240233393</v>
+        <v>0.1787036312541325</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2409429099715397</v>
+        <v>0.2400505303295179</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>211</v>
@@ -5391,19 +5391,19 @@
         <v>157376</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>135985</v>
+        <v>137247</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>177958</v>
+        <v>181198</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1739406752278919</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1502983228858855</v>
+        <v>0.1516930781685701</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1966891971896267</v>
+        <v>0.2002692754485267</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>394</v>
@@ -5412,19 +5412,19 @@
         <v>360987</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>324189</v>
+        <v>324724</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>401936</v>
+        <v>397451</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1920592878751386</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.172481701740004</v>
+        <v>0.1727661322456187</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2138459043477817</v>
+        <v>0.2114596305703131</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>771177</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>739919</v>
+        <v>740789</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>800736</v>
+        <v>800589</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7911235276190512</v>
+        <v>0.7911235276190511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7590570900284601</v>
+        <v>0.759949469670482</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8214467759766607</v>
+        <v>0.8212963687458675</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1107</v>
@@ -5462,19 +5462,19 @@
         <v>747394</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>726812</v>
+        <v>723572</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>768785</v>
+        <v>767523</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8260593247721082</v>
+        <v>0.8260593247721081</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8033108028103729</v>
+        <v>0.799730724551473</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8497016771141143</v>
+        <v>0.8483069218314297</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1870</v>
@@ -5483,19 +5483,19 @@
         <v>1518571</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1477622</v>
+        <v>1482107</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1555369</v>
+        <v>1554834</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8079407121248613</v>
+        <v>0.8079407121248614</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7861540956522187</v>
+        <v>0.788540369429687</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8275182982599963</v>
+        <v>0.8272338677543813</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>890601</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>833412</v>
+        <v>837685</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>945991</v>
+        <v>948635</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2559092570525816</v>
+        <v>0.2559092570525817</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2394764436179216</v>
+        <v>0.2407042721667453</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2718254384342607</v>
+        <v>0.27258502222372</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>947</v>
@@ -5608,19 +5608,19 @@
         <v>702954</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>664131</v>
+        <v>662158</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>749059</v>
+        <v>748827</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.190407360702716</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.179891592975354</v>
+        <v>0.1793572353453868</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2028957942067329</v>
+        <v>0.2028329443416232</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1750</v>
@@ -5629,19 +5629,19 @@
         <v>1593554</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1521617</v>
+        <v>1519632</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1663842</v>
+        <v>1665580</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2221915845426553</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2121611729053158</v>
+        <v>0.2118844046516752</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2319918362859583</v>
+        <v>0.2322341699280495</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2589542</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2534152</v>
+        <v>2531508</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2646731</v>
+        <v>2642458</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7440907429474183</v>
+        <v>0.7440907429474185</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7281745615657393</v>
+        <v>0.7274149777762802</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7605235563820784</v>
+        <v>0.7592957278332547</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4355</v>
@@ -5679,19 +5679,19 @@
         <v>2988887</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2942782</v>
+        <v>2943014</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3027710</v>
+        <v>3029683</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.809592639297284</v>
+        <v>0.8095926392972841</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7971042057932667</v>
+        <v>0.7971670556583768</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8201084070246458</v>
+        <v>0.8206427646546133</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6892</v>
@@ -5700,19 +5700,19 @@
         <v>5578430</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5508142</v>
+        <v>5506404</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5650367</v>
+        <v>5652352</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7778084154573448</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7680081637140419</v>
+        <v>0.7677658300719507</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7878388270946843</v>
+        <v>0.788115595348325</v>
       </c>
     </row>
     <row r="18">
